--- a/resources/template/_trade12.xlsx
+++ b/resources/template/_trade12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Server\localhost\nordihome\storage\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\localhost\nordihome\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -432,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -964,11 +964,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1219,21 +1269,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1243,14 +1284,185 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1273,185 +1485,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1459,86 +1572,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1850,8 +1909,8 @@
   </sheetPr>
   <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25:AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1900,27 +1959,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V1" s="95" t="s">
+      <c r="V1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
     </row>
     <row r="2" spans="2:40" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AL2" s="3"/>
@@ -1930,39 +1989,39 @@
       </c>
     </row>
     <row r="3" spans="2:40" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
       <c r="AG3" s="63"/>
       <c r="AH3" s="63"/>
       <c r="AI3" s="63"/>
@@ -1976,37 +2035,37 @@
       </c>
     </row>
     <row r="4" spans="2:40" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
       <c r="AG4" s="64"/>
       <c r="AH4" s="64"/>
       <c r="AI4" s="64"/>
@@ -2055,47 +2114,47 @@
       <c r="AH5" s="63"/>
       <c r="AI5" s="63"/>
       <c r="AJ5" s="63"/>
-      <c r="AN5" s="98"/>
+      <c r="AN5" s="152"/>
     </row>
     <row r="6" spans="2:40" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="100"/>
-      <c r="AJ6" s="100"/>
-      <c r="AN6" s="99"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="154"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="154"/>
+      <c r="S6" s="154"/>
+      <c r="T6" s="154"/>
+      <c r="U6" s="154"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="154"/>
+      <c r="X6" s="154"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="154"/>
+      <c r="AB6" s="154"/>
+      <c r="AC6" s="154"/>
+      <c r="AD6" s="154"/>
+      <c r="AE6" s="154"/>
+      <c r="AF6" s="154"/>
+      <c r="AG6" s="154"/>
+      <c r="AH6" s="154"/>
+      <c r="AI6" s="154"/>
+      <c r="AJ6" s="154"/>
+      <c r="AN6" s="153"/>
     </row>
     <row r="7" spans="2:40" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
@@ -2142,45 +2201,45 @@
       <c r="AN7" s="12"/>
     </row>
     <row r="8" spans="2:40" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102" t="s">
+      <c r="C8" s="155"/>
+      <c r="D8" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="102"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
+      <c r="W8" s="144"/>
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="144"/>
+      <c r="AA8" s="144"/>
+      <c r="AB8" s="144"/>
+      <c r="AC8" s="144"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="144"/>
+      <c r="AG8" s="144"/>
+      <c r="AH8" s="144"/>
+      <c r="AI8" s="144"/>
+      <c r="AJ8" s="144"/>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7" t="s">
         <v>5</v>
@@ -2227,53 +2286,53 @@
       <c r="AJ9" s="63"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
-      <c r="AN9" s="103"/>
+      <c r="AN9" s="142"/>
     </row>
     <row r="10" spans="2:40" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="69"/>
       <c r="C10" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="144"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="144"/>
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="144"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AN10" s="104"/>
+      <c r="AN10" s="143"/>
     </row>
     <row r="11" spans="2:40" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="63"/>
@@ -2315,53 +2374,53 @@
       <c r="AJ11" s="63"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
-      <c r="AN11" s="103"/>
+      <c r="AN11" s="142"/>
     </row>
     <row r="12" spans="2:40" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="69"/>
       <c r="C12" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="102"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="102"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="144"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="144"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="144"/>
+      <c r="AE12" s="144"/>
+      <c r="AF12" s="144"/>
+      <c r="AG12" s="144"/>
+      <c r="AH12" s="144"/>
+      <c r="AI12" s="144"/>
+      <c r="AJ12" s="144"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AN12" s="104"/>
+      <c r="AN12" s="143"/>
     </row>
     <row r="13" spans="2:40" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="63"/>
@@ -2401,55 +2460,55 @@
       <c r="AH13" s="63"/>
       <c r="AI13" s="63"/>
       <c r="AJ13" s="63"/>
-      <c r="AL13" s="105" t="s">
+      <c r="AL13" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="103"/>
+      <c r="AM13" s="145"/>
+      <c r="AN13" s="142"/>
     </row>
     <row r="14" spans="2:40" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="69"/>
       <c r="C14" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="108"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="108"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="108"/>
-      <c r="AJ14" s="108"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="107"/>
-      <c r="AN14" s="104"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="148"/>
+      <c r="AG14" s="148"/>
+      <c r="AH14" s="148"/>
+      <c r="AI14" s="148"/>
+      <c r="AJ14" s="148"/>
+      <c r="AL14" s="146"/>
+      <c r="AM14" s="147"/>
+      <c r="AN14" s="143"/>
     </row>
     <row r="15" spans="2:40" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="63"/>
@@ -2489,10 +2548,10 @@
       <c r="AH15" s="63"/>
       <c r="AI15" s="63"/>
       <c r="AJ15" s="63"/>
-      <c r="AL15" s="109" t="s">
+      <c r="AL15" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="AM15" s="109"/>
+      <c r="AM15" s="138"/>
       <c r="AN15" s="8"/>
     </row>
     <row r="16" spans="2:40" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2506,20 +2565,20 @@
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
       <c r="K16" s="63"/>
-      <c r="L16" s="110" t="s">
+      <c r="L16" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110" t="s">
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
       <c r="V16" s="63"/>
       <c r="W16" s="63"/>
       <c r="X16" s="63"/>
@@ -2537,10 +2596,10 @@
       <c r="AJ16" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AL16" s="109" t="s">
+      <c r="AL16" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="AM16" s="109"/>
+      <c r="AM16" s="138"/>
       <c r="AN16" s="8"/>
     </row>
     <row r="17" spans="2:42" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2556,20 +2615,20 @@
       <c r="K17" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="111" t="s">
+      <c r="L17" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="112" t="s">
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="141"/>
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
       <c r="X17" s="63"/>
@@ -2585,10 +2644,10 @@
       <c r="AH17" s="63"/>
       <c r="AI17" s="63"/>
       <c r="AJ17" s="63"/>
-      <c r="AL17" s="109" t="s">
+      <c r="AL17" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="AM17" s="109"/>
+      <c r="AM17" s="138"/>
       <c r="AN17" s="8"/>
     </row>
     <row r="18" spans="2:42" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2606,240 +2665,240 @@
       </c>
     </row>
     <row r="20" spans="2:42" s="21" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115" t="s">
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="113" t="s">
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="115" t="s">
+      <c r="O20" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="113" t="s">
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113" t="s">
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113" t="s">
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113" t="s">
+      <c r="AA20" s="129"/>
+      <c r="AB20" s="129"/>
+      <c r="AC20" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="115" t="s">
+      <c r="AD20" s="129"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AI20" s="115"/>
-      <c r="AJ20" s="115"/>
-      <c r="AK20" s="115"/>
-      <c r="AL20" s="115"/>
-      <c r="AM20" s="113" t="s">
+      <c r="AI20" s="109"/>
+      <c r="AJ20" s="109"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="109"/>
+      <c r="AM20" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AN20" s="113"/>
-      <c r="AO20" s="113"/>
+      <c r="AN20" s="129"/>
+      <c r="AO20" s="129"/>
     </row>
     <row r="21" spans="2:42" s="21" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="137"/>
+      <c r="C21" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
       <c r="H21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="116" t="s">
+      <c r="I21" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
       <c r="M21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="114"/>
-      <c r="O21" s="116" t="s">
+      <c r="N21" s="137"/>
+      <c r="O21" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116" t="s">
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="120"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="119"/>
-      <c r="AF21" s="119"/>
-      <c r="AG21" s="120"/>
-      <c r="AH21" s="116" t="s">
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="136"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="130"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="AI21" s="116"/>
-      <c r="AJ21" s="116" t="s">
+      <c r="AI21" s="133"/>
+      <c r="AJ21" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="AK21" s="116"/>
-      <c r="AL21" s="116"/>
-      <c r="AM21" s="118"/>
-      <c r="AN21" s="119"/>
-      <c r="AO21" s="120"/>
-    </row>
-    <row r="22" spans="2:42" s="24" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK21" s="133"/>
+      <c r="AL21" s="133"/>
+      <c r="AM21" s="130"/>
+      <c r="AN21" s="131"/>
+      <c r="AO21" s="132"/>
+    </row>
+    <row r="22" spans="2:42" s="24" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
       <c r="H22" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="115" t="s">
+      <c r="I22" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
       <c r="M22" s="25" t="s">
         <v>52</v>
       </c>
       <c r="N22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="117" t="s">
+      <c r="O22" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117" t="s">
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117" t="s">
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117" t="s">
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117" t="s">
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117" t="s">
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="115" t="s">
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="124"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="AI22" s="115"/>
-      <c r="AJ22" s="117" t="s">
+      <c r="AI22" s="109"/>
+      <c r="AJ22" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117" t="s">
+      <c r="AK22" s="124"/>
+      <c r="AL22" s="124"/>
+      <c r="AM22" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="117"/>
-    </row>
-    <row r="23" spans="2:42" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN22" s="124"/>
+      <c r="AO22" s="124"/>
+    </row>
+    <row r="23" spans="2:42" s="21" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="77"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="78"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
       <c r="M23" s="79"/>
       <c r="N23" s="80"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
       <c r="U23" s="81"/>
       <c r="V23" s="82"/>
       <c r="W23" s="83"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="139"/>
-      <c r="AA23" s="139"/>
-      <c r="AB23" s="139"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="140"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="141"/>
-      <c r="AJ23" s="84"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="83"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="128"/>
-      <c r="AO23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="121"/>
+      <c r="AD23" s="121"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="121"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="122"/>
+      <c r="AI23" s="122"/>
+      <c r="AJ23" s="185"/>
+      <c r="AK23" s="186"/>
+      <c r="AL23" s="187"/>
+      <c r="AM23" s="123"/>
+      <c r="AN23" s="123"/>
+      <c r="AO23" s="123"/>
     </row>
     <row r="24" spans="2:42" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="34"/>
@@ -2860,34 +2919,34 @@
       <c r="Q24" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="136" t="s">
+      <c r="R24" s="115"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="136"/>
-      <c r="AC24" s="137"/>
-      <c r="AD24" s="137"/>
-      <c r="AE24" s="137"/>
-      <c r="AF24" s="137"/>
-      <c r="AG24" s="137"/>
-      <c r="AH24" s="138" t="s">
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="AI24" s="138"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="129"/>
-      <c r="AN24" s="129"/>
-      <c r="AO24" s="129"/>
+      <c r="AI24" s="119"/>
+      <c r="AJ24" s="188"/>
+      <c r="AK24" s="189"/>
+      <c r="AL24" s="190"/>
+      <c r="AM24" s="110"/>
+      <c r="AN24" s="110"/>
+      <c r="AO24" s="110"/>
     </row>
     <row r="25" spans="2:42" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O25" s="7"/>
@@ -2895,34 +2954,34 @@
       <c r="Q25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="132" t="s">
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="133"/>
-      <c r="AD25" s="133"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="133"/>
-      <c r="AG25" s="133"/>
-      <c r="AH25" s="132" t="s">
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="114"/>
+      <c r="AD25" s="114"/>
+      <c r="AE25" s="114"/>
+      <c r="AF25" s="114"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="AI25" s="132"/>
-      <c r="AJ25" s="92"/>
-      <c r="AK25" s="93"/>
-      <c r="AL25" s="94"/>
-      <c r="AM25" s="133"/>
-      <c r="AN25" s="133"/>
-      <c r="AO25" s="133"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="191"/>
+      <c r="AK25" s="192"/>
+      <c r="AL25" s="193"/>
+      <c r="AM25" s="114"/>
+      <c r="AN25" s="114"/>
+      <c r="AO25" s="114"/>
     </row>
     <row r="26" spans="2:42" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="2" t="s">
@@ -2997,22 +3056,22 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
-      <c r="AI28" s="142"/>
-      <c r="AJ28" s="142"/>
-      <c r="AK28" s="142"/>
-      <c r="AL28" s="142"/>
-      <c r="AM28" s="142"/>
-      <c r="AN28" s="142"/>
-      <c r="AO28" s="142"/>
-      <c r="AP28" s="142"/>
+      <c r="AI28" s="101"/>
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="101"/>
     </row>
     <row r="29" spans="2:42" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="146" t="s">
+      <c r="F29" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
       <c r="K29" s="2" t="s">
         <v>79</v>
       </c>
@@ -3025,24 +3084,24 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
-      <c r="AB29" s="149"/>
-      <c r="AC29" s="149"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="149"/>
-      <c r="AI29" s="143"/>
-      <c r="AJ29" s="144"/>
-      <c r="AK29" s="144"/>
-      <c r="AL29" s="144"/>
-      <c r="AM29" s="144"/>
-      <c r="AN29" s="144"/>
-      <c r="AO29" s="144"/>
-      <c r="AP29" s="145"/>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="108"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="103"/>
+      <c r="AP29" s="104"/>
     </row>
     <row r="30" spans="2:42" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
       <c r="S30" s="50" t="s">
         <v>77</v>
       </c>
@@ -3054,27 +3113,27 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
-      <c r="AB30" s="150"/>
-      <c r="AC30" s="150"/>
-      <c r="AD30" s="150"/>
-      <c r="AE30" s="150"/>
-      <c r="AI30" s="142"/>
-      <c r="AJ30" s="142"/>
-      <c r="AK30" s="142"/>
-      <c r="AL30" s="142"/>
-      <c r="AM30" s="142"/>
-      <c r="AN30" s="142"/>
-      <c r="AO30" s="142"/>
-      <c r="AP30" s="142"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AI30" s="101"/>
+      <c r="AJ30" s="101"/>
+      <c r="AK30" s="101"/>
+      <c r="AL30" s="101"/>
+      <c r="AM30" s="101"/>
+      <c r="AN30" s="101"/>
+      <c r="AO30" s="101"/>
+      <c r="AP30" s="101"/>
     </row>
     <row r="31" spans="2:42" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
       <c r="K31" s="2" t="s">
         <v>81</v>
       </c>
@@ -3091,22 +3150,22 @@
       <c r="AC31" s="52"/>
       <c r="AD31" s="52"/>
       <c r="AE31" s="52"/>
-      <c r="AI31" s="143"/>
-      <c r="AJ31" s="144"/>
-      <c r="AK31" s="144"/>
-      <c r="AL31" s="144"/>
-      <c r="AM31" s="144"/>
-      <c r="AN31" s="144"/>
-      <c r="AO31" s="144"/>
-      <c r="AP31" s="145"/>
+      <c r="AI31" s="102"/>
+      <c r="AJ31" s="103"/>
+      <c r="AK31" s="103"/>
+      <c r="AL31" s="103"/>
+      <c r="AM31" s="103"/>
+      <c r="AN31" s="103"/>
+      <c r="AO31" s="103"/>
+      <c r="AP31" s="104"/>
     </row>
     <row r="32" spans="2:42" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F32" s="151" t="s">
+      <c r="F32" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
       <c r="J32" s="9"/>
       <c r="S32" s="50" t="s">
         <v>77</v>
@@ -3119,10 +3178,10 @@
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
-      <c r="AB32" s="152"/>
-      <c r="AC32" s="152"/>
-      <c r="AD32" s="150"/>
-      <c r="AE32" s="150"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
     </row>
     <row r="33" spans="2:42" s="2" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:42" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -3163,12 +3222,12 @@
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="151" t="s">
+      <c r="G35" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
       <c r="R35" s="54"/>
       <c r="S35" s="55"/>
     </row>
@@ -3206,17 +3265,17 @@
       <c r="AP36" s="6"/>
     </row>
     <row r="37" spans="2:42" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="153" t="s">
+      <c r="B37" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
       <c r="M37" s="59"/>
@@ -3248,32 +3307,32 @@
       <c r="AP37" s="10"/>
     </row>
     <row r="38" spans="2:42" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="156" t="s">
+      <c r="B38" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
       <c r="R38" s="54"/>
       <c r="S38" s="55"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
-      <c r="AB38" s="157"/>
-      <c r="AC38" s="157"/>
-      <c r="AD38" s="157"/>
-      <c r="AE38" s="157"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
@@ -3290,22 +3349,22 @@
       <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="159" t="s">
+      <c r="E39" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="159"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="64"/>
       <c r="H39" s="64"/>
       <c r="I39" s="64"/>
       <c r="J39" s="63"/>
-      <c r="K39" s="159" t="s">
+      <c r="K39" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="L39" s="159"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="159"/>
-      <c r="O39" s="159"/>
-      <c r="P39" s="159"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
       <c r="R39" s="54"/>
       <c r="S39" s="55"/>
       <c r="Y39" s="6"/>
@@ -3369,10 +3428,10 @@
       </c>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
-      <c r="AB41" s="157"/>
-      <c r="AC41" s="157"/>
-      <c r="AD41" s="157"/>
-      <c r="AE41" s="157"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="90"/>
+      <c r="AD41" s="90"/>
+      <c r="AE41" s="90"/>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
@@ -3383,8 +3442,8 @@
       <c r="AP41" s="6"/>
     </row>
     <row r="42" spans="2:42" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
       <c r="G42" s="50" t="s">
         <v>93</v>
       </c>
@@ -3404,29 +3463,29 @@
         <v>92</v>
       </c>
       <c r="Z42" s="10"/>
-      <c r="AB42" s="151" t="s">
+      <c r="AB42" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="AC42" s="151"/>
-      <c r="AD42" s="151"/>
-      <c r="AE42" s="151"/>
-      <c r="AI42" s="158" t="s">
+      <c r="AC42" s="91"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AI42" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="AJ42" s="158"/>
-      <c r="AK42" s="158"/>
-      <c r="AL42" s="158"/>
-      <c r="AM42" s="158"/>
-      <c r="AN42" s="158"/>
-      <c r="AO42" s="158"/>
-      <c r="AP42" s="158"/>
+      <c r="AJ42" s="89"/>
+      <c r="AK42" s="89"/>
+      <c r="AL42" s="89"/>
+      <c r="AM42" s="89"/>
+      <c r="AN42" s="89"/>
+      <c r="AO42" s="89"/>
+      <c r="AP42" s="89"/>
     </row>
     <row r="43" spans="2:42" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -3443,10 +3502,10 @@
       </c>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
-      <c r="AB43" s="157"/>
-      <c r="AC43" s="157"/>
-      <c r="AD43" s="157"/>
-      <c r="AE43" s="157"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="90"/>
+      <c r="AE43" s="90"/>
       <c r="AI43" s="51"/>
       <c r="AJ43" s="51"/>
       <c r="AK43" s="51"/>
@@ -3484,22 +3543,22 @@
         <v>92</v>
       </c>
       <c r="Z44" s="10"/>
-      <c r="AB44" s="151" t="s">
+      <c r="AB44" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="AC44" s="151"/>
-      <c r="AD44" s="151"/>
-      <c r="AE44" s="151"/>
-      <c r="AI44" s="158" t="s">
+      <c r="AC44" s="91"/>
+      <c r="AD44" s="91"/>
+      <c r="AE44" s="91"/>
+      <c r="AI44" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="AJ44" s="158"/>
-      <c r="AK44" s="158"/>
-      <c r="AL44" s="158"/>
-      <c r="AM44" s="158"/>
-      <c r="AN44" s="158"/>
-      <c r="AO44" s="158"/>
-      <c r="AP44" s="158"/>
+      <c r="AJ44" s="89"/>
+      <c r="AK44" s="89"/>
+      <c r="AL44" s="89"/>
+      <c r="AM44" s="89"/>
+      <c r="AN44" s="89"/>
+      <c r="AO44" s="89"/>
+      <c r="AP44" s="89"/>
     </row>
     <row r="45" spans="2:42" s="2" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R45" s="54"/>
@@ -3534,27 +3593,63 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="AI42:AP42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AI44:AP44"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:P38"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="AI28:AP29"/>
-    <mergeCell ref="F29:I31"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AI30:AP31"/>
+  <mergeCells count="92">
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="V1:AN1"/>
+    <mergeCell ref="B3:AF4"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="B6:AJ6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:AJ8"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="D10:AJ10"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="D12:AJ12"/>
+    <mergeCell ref="AL13:AM14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="D14:AJ14"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="AM20:AO21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM22:AO22"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:W21"/>
+    <mergeCell ref="X20:Y21"/>
+    <mergeCell ref="Z20:AB21"/>
+    <mergeCell ref="AC20:AG21"/>
+    <mergeCell ref="AH20:AL20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AM23:AO23"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AJ23:AL23"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="AM24:AO24"/>
     <mergeCell ref="R25:T25"/>
@@ -3571,59 +3666,26 @@
     <mergeCell ref="Z23:AB23"/>
     <mergeCell ref="AC23:AG23"/>
     <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AM23:AO23"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AG22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="AM20:AO21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM22:AO22"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:W21"/>
-    <mergeCell ref="X20:Y21"/>
-    <mergeCell ref="Z20:AB21"/>
-    <mergeCell ref="AC20:AG21"/>
-    <mergeCell ref="AH20:AL20"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:T20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:U17"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="D10:AJ10"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="D12:AJ12"/>
-    <mergeCell ref="AL13:AM14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="D14:AJ14"/>
-    <mergeCell ref="V1:AN1"/>
-    <mergeCell ref="B3:AF4"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="B6:AJ6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:AJ8"/>
+    <mergeCell ref="AI28:AP29"/>
+    <mergeCell ref="F29:I31"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AI30:AP31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AI42:AP42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AI44:AP44"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="AB42:AE42"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
@@ -3688,27 +3750,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V1" s="95" t="s">
+      <c r="V1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
     </row>
     <row r="2" spans="2:40" s="16" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AL2" s="3"/>
@@ -3718,39 +3780,39 @@
       </c>
     </row>
     <row r="3" spans="2:40" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="162"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3" t="s">
         <v>3</v>
@@ -3760,37 +3822,37 @@
       </c>
     </row>
     <row r="4" spans="2:40" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
@@ -3835,47 +3897,47 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-      <c r="AN5" s="98"/>
+      <c r="AN5" s="152"/>
     </row>
     <row r="6" spans="2:40" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
-      <c r="AN6" s="99"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="184"/>
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
+      <c r="X6" s="184"/>
+      <c r="Y6" s="184"/>
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="184"/>
+      <c r="AB6" s="184"/>
+      <c r="AC6" s="184"/>
+      <c r="AD6" s="184"/>
+      <c r="AE6" s="184"/>
+      <c r="AF6" s="184"/>
+      <c r="AG6" s="184"/>
+      <c r="AH6" s="184"/>
+      <c r="AI6" s="184"/>
+      <c r="AJ6" s="184"/>
+      <c r="AN6" s="153"/>
     </row>
     <row r="7" spans="2:40" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
@@ -3918,45 +3980,45 @@
       <c r="AN7" s="12"/>
     </row>
     <row r="8" spans="2:40" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="164" t="s">
+      <c r="C8" s="149"/>
+      <c r="D8" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="164"/>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="164"/>
-      <c r="AD8" s="164"/>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="164"/>
-      <c r="AH8" s="164"/>
-      <c r="AI8" s="164"/>
-      <c r="AJ8" s="164"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
+      <c r="AI8" s="181"/>
+      <c r="AJ8" s="181"/>
       <c r="AL8" s="19"/>
       <c r="AM8" s="19" t="s">
         <v>5</v>
@@ -3997,53 +4059,53 @@
       <c r="AF9" s="15"/>
       <c r="AL9" s="19"/>
       <c r="AM9" s="19"/>
-      <c r="AN9" s="103"/>
+      <c r="AN9" s="142"/>
     </row>
     <row r="10" spans="2:40" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="164"/>
-      <c r="AH10" s="164"/>
-      <c r="AI10" s="164"/>
-      <c r="AJ10" s="164"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="181"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="181"/>
+      <c r="AA10" s="181"/>
+      <c r="AB10" s="181"/>
+      <c r="AC10" s="181"/>
+      <c r="AD10" s="181"/>
+      <c r="AE10" s="181"/>
+      <c r="AF10" s="181"/>
+      <c r="AG10" s="181"/>
+      <c r="AH10" s="181"/>
+      <c r="AI10" s="181"/>
+      <c r="AJ10" s="181"/>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AN10" s="104"/>
+      <c r="AN10" s="143"/>
     </row>
     <row r="11" spans="2:40" s="16" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="11" t="s">
@@ -4079,53 +4141,53 @@
       <c r="AF11" s="15"/>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19"/>
-      <c r="AN11" s="103"/>
+      <c r="AN11" s="142"/>
     </row>
     <row r="12" spans="2:40" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="164"/>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="164"/>
-      <c r="AI12" s="164"/>
-      <c r="AJ12" s="164"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="181"/>
+      <c r="S12" s="181"/>
+      <c r="T12" s="181"/>
+      <c r="U12" s="181"/>
+      <c r="V12" s="181"/>
+      <c r="W12" s="181"/>
+      <c r="X12" s="181"/>
+      <c r="Y12" s="181"/>
+      <c r="Z12" s="181"/>
+      <c r="AA12" s="181"/>
+      <c r="AB12" s="181"/>
+      <c r="AC12" s="181"/>
+      <c r="AD12" s="181"/>
+      <c r="AE12" s="181"/>
+      <c r="AF12" s="181"/>
+      <c r="AG12" s="181"/>
+      <c r="AH12" s="181"/>
+      <c r="AI12" s="181"/>
+      <c r="AJ12" s="181"/>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AN12" s="104"/>
+      <c r="AN12" s="143"/>
     </row>
     <row r="13" spans="2:40" s="16" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="11" t="s">
@@ -4159,55 +4221,55 @@
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
-      <c r="AL13" s="105" t="s">
+      <c r="AL13" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="103"/>
+      <c r="AM13" s="145"/>
+      <c r="AN13" s="142"/>
     </row>
     <row r="14" spans="2:40" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="165" t="s">
+      <c r="D14" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
-      <c r="S14" s="165"/>
-      <c r="T14" s="165"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="165"/>
-      <c r="W14" s="165"/>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="165"/>
-      <c r="Z14" s="165"/>
-      <c r="AA14" s="165"/>
-      <c r="AB14" s="165"/>
-      <c r="AC14" s="165"/>
-      <c r="AD14" s="165"/>
-      <c r="AE14" s="165"/>
-      <c r="AF14" s="165"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="165"/>
-      <c r="AI14" s="165"/>
-      <c r="AJ14" s="165"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="107"/>
-      <c r="AN14" s="104"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="182"/>
+      <c r="P14" s="182"/>
+      <c r="Q14" s="182"/>
+      <c r="R14" s="182"/>
+      <c r="S14" s="182"/>
+      <c r="T14" s="182"/>
+      <c r="U14" s="182"/>
+      <c r="V14" s="182"/>
+      <c r="W14" s="182"/>
+      <c r="X14" s="182"/>
+      <c r="Y14" s="182"/>
+      <c r="Z14" s="182"/>
+      <c r="AA14" s="182"/>
+      <c r="AB14" s="182"/>
+      <c r="AC14" s="182"/>
+      <c r="AD14" s="182"/>
+      <c r="AE14" s="182"/>
+      <c r="AF14" s="182"/>
+      <c r="AG14" s="182"/>
+      <c r="AH14" s="182"/>
+      <c r="AI14" s="182"/>
+      <c r="AJ14" s="182"/>
+      <c r="AL14" s="146"/>
+      <c r="AM14" s="147"/>
+      <c r="AN14" s="143"/>
     </row>
     <row r="15" spans="2:40" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="11" t="s">
@@ -4241,37 +4303,37 @@
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-      <c r="AL15" s="109" t="s">
+      <c r="AL15" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="AM15" s="109"/>
+      <c r="AM15" s="138"/>
       <c r="AN15" s="8"/>
     </row>
     <row r="16" spans="2:40" s="16" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="115" t="s">
+      <c r="L16" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115" t="s">
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AL16" s="109" t="s">
+      <c r="AL16" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="AM16" s="109"/>
+      <c r="AM16" s="138"/>
       <c r="AN16" s="8"/>
     </row>
     <row r="17" spans="2:42" s="16" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4285,24 +4347,24 @@
       <c r="K17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="166" t="s">
+      <c r="L17" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="167" t="s">
+      <c r="M17" s="179"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="167"/>
-      <c r="S17" s="167"/>
-      <c r="T17" s="167"/>
-      <c r="U17" s="167"/>
-      <c r="AL17" s="109" t="s">
+      <c r="Q17" s="180"/>
+      <c r="R17" s="180"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="180"/>
+      <c r="U17" s="180"/>
+      <c r="AL17" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="AM17" s="109"/>
+      <c r="AM17" s="138"/>
       <c r="AN17" s="8"/>
     </row>
     <row r="18" spans="2:42" s="16" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4320,266 +4382,266 @@
       </c>
     </row>
     <row r="20" spans="2:42" s="21" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115" t="s">
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="113" t="s">
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="115" t="s">
+      <c r="O20" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="113" t="s">
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113" t="s">
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113" t="s">
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113" t="s">
+      <c r="AA20" s="129"/>
+      <c r="AB20" s="129"/>
+      <c r="AC20" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="115" t="s">
+      <c r="AD20" s="129"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AI20" s="115"/>
-      <c r="AJ20" s="115"/>
-      <c r="AK20" s="115"/>
-      <c r="AL20" s="115"/>
-      <c r="AM20" s="113" t="s">
+      <c r="AI20" s="109"/>
+      <c r="AJ20" s="109"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="109"/>
+      <c r="AM20" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AN20" s="113"/>
-      <c r="AO20" s="113"/>
+      <c r="AN20" s="129"/>
+      <c r="AO20" s="129"/>
     </row>
     <row r="21" spans="2:42" s="21" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="137"/>
+      <c r="C21" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
       <c r="H21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="116" t="s">
+      <c r="I21" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
       <c r="M21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="114"/>
-      <c r="O21" s="116" t="s">
+      <c r="N21" s="137"/>
+      <c r="O21" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116" t="s">
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="120"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="119"/>
-      <c r="AF21" s="119"/>
-      <c r="AG21" s="120"/>
-      <c r="AH21" s="116" t="s">
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="136"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="130"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="AI21" s="116"/>
-      <c r="AJ21" s="116" t="s">
+      <c r="AI21" s="133"/>
+      <c r="AJ21" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="AK21" s="116"/>
-      <c r="AL21" s="116"/>
-      <c r="AM21" s="118"/>
-      <c r="AN21" s="119"/>
-      <c r="AO21" s="120"/>
+      <c r="AK21" s="133"/>
+      <c r="AL21" s="133"/>
+      <c r="AM21" s="130"/>
+      <c r="AN21" s="131"/>
+      <c r="AO21" s="132"/>
     </row>
     <row r="22" spans="2:42" s="24" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
       <c r="H22" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="115" t="s">
+      <c r="I22" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
       <c r="M22" s="25" t="s">
         <v>52</v>
       </c>
       <c r="N22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="117" t="s">
+      <c r="O22" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117" t="s">
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117" t="s">
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117" t="s">
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117" t="s">
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117" t="s">
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="115" t="s">
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="124"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="AI22" s="115"/>
-      <c r="AJ22" s="117" t="s">
+      <c r="AI22" s="109"/>
+      <c r="AJ22" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117" t="s">
+      <c r="AK22" s="124"/>
+      <c r="AL22" s="124"/>
+      <c r="AM22" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="117"/>
+      <c r="AN22" s="124"/>
+      <c r="AO22" s="124"/>
     </row>
     <row r="23" spans="2:42" s="21" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26">
         <v>1</v>
       </c>
-      <c r="C23" s="184" t="s">
+      <c r="C23" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
       <c r="H23" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="185" t="s">
+      <c r="I23" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="185"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
       <c r="M23" s="28" t="s">
         <v>66</v>
       </c>
       <c r="N23" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="180">
+      <c r="O23" s="167">
         <v>1</v>
       </c>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="180"/>
-      <c r="R23" s="180">
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="167">
         <v>1</v>
       </c>
-      <c r="S23" s="180"/>
-      <c r="T23" s="180"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="167"/>
       <c r="U23" s="30"/>
       <c r="V23" s="31"/>
       <c r="W23" s="32"/>
-      <c r="X23" s="181">
+      <c r="X23" s="178">
         <v>1</v>
       </c>
-      <c r="Y23" s="181"/>
-      <c r="Z23" s="177">
+      <c r="Y23" s="178"/>
+      <c r="Z23" s="175">
         <v>2590</v>
       </c>
-      <c r="AA23" s="177"/>
-      <c r="AB23" s="177"/>
-      <c r="AC23" s="178">
+      <c r="AA23" s="175"/>
+      <c r="AB23" s="175"/>
+      <c r="AC23" s="176">
         <v>2590</v>
       </c>
-      <c r="AD23" s="178"/>
-      <c r="AE23" s="178"/>
-      <c r="AF23" s="178"/>
-      <c r="AG23" s="178"/>
-      <c r="AH23" s="179" t="s">
+      <c r="AD23" s="176"/>
+      <c r="AE23" s="176"/>
+      <c r="AF23" s="176"/>
+      <c r="AG23" s="176"/>
+      <c r="AH23" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="AI23" s="179"/>
+      <c r="AI23" s="177"/>
       <c r="AJ23" s="33"/>
       <c r="AK23" s="31"/>
       <c r="AL23" s="32"/>
-      <c r="AM23" s="170">
+      <c r="AM23" s="168">
         <v>2590</v>
       </c>
-      <c r="AN23" s="170"/>
-      <c r="AO23" s="170"/>
+      <c r="AN23" s="168"/>
+      <c r="AO23" s="168"/>
     </row>
     <row r="24" spans="2:42" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="34"/>
@@ -4600,42 +4662,42 @@
       <c r="Q24" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="171">
+      <c r="R24" s="169">
         <v>1</v>
       </c>
-      <c r="S24" s="171"/>
-      <c r="T24" s="171"/>
+      <c r="S24" s="169"/>
+      <c r="T24" s="169"/>
       <c r="U24" s="37"/>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
-      <c r="X24" s="172">
+      <c r="X24" s="170">
         <v>1</v>
       </c>
-      <c r="Y24" s="172"/>
-      <c r="Z24" s="173" t="s">
+      <c r="Y24" s="170"/>
+      <c r="Z24" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="AA24" s="173"/>
-      <c r="AB24" s="173"/>
-      <c r="AC24" s="174">
+      <c r="AA24" s="171"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="172">
         <v>2590</v>
       </c>
-      <c r="AD24" s="174"/>
-      <c r="AE24" s="174"/>
-      <c r="AF24" s="174"/>
-      <c r="AG24" s="174"/>
-      <c r="AH24" s="175" t="s">
+      <c r="AD24" s="172"/>
+      <c r="AE24" s="172"/>
+      <c r="AF24" s="172"/>
+      <c r="AG24" s="172"/>
+      <c r="AH24" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="AI24" s="175"/>
+      <c r="AI24" s="173"/>
       <c r="AJ24" s="39"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="40"/>
-      <c r="AM24" s="176">
+      <c r="AM24" s="174">
         <v>2590</v>
       </c>
-      <c r="AN24" s="176"/>
-      <c r="AO24" s="176"/>
+      <c r="AN24" s="174"/>
+      <c r="AO24" s="174"/>
     </row>
     <row r="25" spans="2:42" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O25" s="19"/>
@@ -4643,42 +4705,42 @@
       <c r="Q25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="R25" s="182">
+      <c r="R25" s="161">
         <v>1</v>
       </c>
-      <c r="S25" s="182"/>
-      <c r="T25" s="182"/>
+      <c r="S25" s="161"/>
+      <c r="T25" s="161"/>
       <c r="U25" s="41"/>
       <c r="V25" s="42"/>
       <c r="W25" s="43"/>
-      <c r="X25" s="183">
+      <c r="X25" s="162">
         <v>1</v>
       </c>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="168" t="s">
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="AA25" s="168"/>
-      <c r="AB25" s="168"/>
-      <c r="AC25" s="169">
+      <c r="AA25" s="163"/>
+      <c r="AB25" s="163"/>
+      <c r="AC25" s="164">
         <v>2590</v>
       </c>
-      <c r="AD25" s="169"/>
-      <c r="AE25" s="169"/>
-      <c r="AF25" s="169"/>
-      <c r="AG25" s="169"/>
-      <c r="AH25" s="168" t="s">
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="164"/>
+      <c r="AH25" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="AI25" s="168"/>
+      <c r="AI25" s="163"/>
       <c r="AJ25" s="44"/>
       <c r="AK25" s="45"/>
       <c r="AL25" s="46"/>
-      <c r="AM25" s="169">
+      <c r="AM25" s="164">
         <v>2590</v>
       </c>
-      <c r="AN25" s="169"/>
-      <c r="AO25" s="169"/>
+      <c r="AN25" s="164"/>
+      <c r="AO25" s="164"/>
     </row>
     <row r="26" spans="2:42" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="16" t="s">
@@ -4753,22 +4815,22 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
-      <c r="AI28" s="142"/>
-      <c r="AJ28" s="142"/>
-      <c r="AK28" s="142"/>
-      <c r="AL28" s="142"/>
-      <c r="AM28" s="142"/>
-      <c r="AN28" s="142"/>
-      <c r="AO28" s="142"/>
-      <c r="AP28" s="142"/>
+      <c r="AI28" s="101"/>
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="101"/>
     </row>
     <row r="29" spans="2:42" s="16" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="186" t="s">
+      <c r="F29" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="186"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
       <c r="K29" s="16" t="s">
         <v>79</v>
       </c>
@@ -4781,24 +4843,24 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
-      <c r="AB29" s="149"/>
-      <c r="AC29" s="149"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="149"/>
-      <c r="AI29" s="143"/>
-      <c r="AJ29" s="144"/>
-      <c r="AK29" s="144"/>
-      <c r="AL29" s="144"/>
-      <c r="AM29" s="144"/>
-      <c r="AN29" s="144"/>
-      <c r="AO29" s="144"/>
-      <c r="AP29" s="145"/>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="108"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="103"/>
+      <c r="AP29" s="104"/>
     </row>
     <row r="30" spans="2:42" s="16" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
       <c r="S30" s="50" t="s">
         <v>77</v>
       </c>
@@ -4810,27 +4872,27 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="150"/>
-      <c r="AC30" s="150"/>
-      <c r="AD30" s="150"/>
-      <c r="AE30" s="150"/>
-      <c r="AI30" s="142"/>
-      <c r="AJ30" s="142"/>
-      <c r="AK30" s="142"/>
-      <c r="AL30" s="142"/>
-      <c r="AM30" s="142"/>
-      <c r="AN30" s="142"/>
-      <c r="AO30" s="142"/>
-      <c r="AP30" s="142"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AI30" s="101"/>
+      <c r="AJ30" s="101"/>
+      <c r="AK30" s="101"/>
+      <c r="AL30" s="101"/>
+      <c r="AM30" s="101"/>
+      <c r="AN30" s="101"/>
+      <c r="AO30" s="101"/>
+      <c r="AP30" s="101"/>
     </row>
     <row r="31" spans="2:42" s="16" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E31" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
       <c r="K31" s="16" t="s">
         <v>81</v>
       </c>
@@ -4847,22 +4909,22 @@
       <c r="AC31" s="52"/>
       <c r="AD31" s="52"/>
       <c r="AE31" s="52"/>
-      <c r="AI31" s="143"/>
-      <c r="AJ31" s="144"/>
-      <c r="AK31" s="144"/>
-      <c r="AL31" s="144"/>
-      <c r="AM31" s="144"/>
-      <c r="AN31" s="144"/>
-      <c r="AO31" s="144"/>
-      <c r="AP31" s="145"/>
+      <c r="AI31" s="102"/>
+      <c r="AJ31" s="103"/>
+      <c r="AK31" s="103"/>
+      <c r="AL31" s="103"/>
+      <c r="AM31" s="103"/>
+      <c r="AN31" s="103"/>
+      <c r="AO31" s="103"/>
+      <c r="AP31" s="104"/>
     </row>
     <row r="32" spans="2:42" s="16" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F32" s="151" t="s">
+      <c r="F32" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
       <c r="J32" s="9"/>
       <c r="S32" s="50" t="s">
         <v>77</v>
@@ -4875,10 +4937,10 @@
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
-      <c r="AB32" s="152"/>
-      <c r="AC32" s="152"/>
-      <c r="AD32" s="150"/>
-      <c r="AE32" s="150"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
     </row>
     <row r="33" spans="2:42" s="16" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:42" s="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -4919,12 +4981,12 @@
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" s="16" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="151" t="s">
+      <c r="G35" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
       <c r="R35" s="54"/>
       <c r="S35" s="55"/>
     </row>
@@ -4962,17 +5024,17 @@
       <c r="AP36" s="6"/>
     </row>
     <row r="37" spans="2:42" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
       <c r="M37" s="59"/>
@@ -5004,32 +5066,32 @@
       <c r="AP37" s="10"/>
     </row>
     <row r="38" spans="2:42" s="16" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="156" t="s">
+      <c r="B38" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
       <c r="R38" s="54"/>
       <c r="S38" s="55"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
-      <c r="AB38" s="157"/>
-      <c r="AC38" s="157"/>
-      <c r="AD38" s="157"/>
-      <c r="AE38" s="157"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
@@ -5046,21 +5108,21 @@
       <c r="B39" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="161" t="s">
+      <c r="E39" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="161"/>
+      <c r="F39" s="94"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="K39" s="161" t="s">
+      <c r="K39" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="L39" s="161"/>
-      <c r="M39" s="161"/>
-      <c r="N39" s="161"/>
-      <c r="O39" s="161"/>
-      <c r="P39" s="161"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
       <c r="R39" s="54"/>
       <c r="S39" s="55"/>
       <c r="Y39" s="6"/>
@@ -5124,10 +5186,10 @@
       </c>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
-      <c r="AB41" s="157"/>
-      <c r="AC41" s="157"/>
-      <c r="AD41" s="157"/>
-      <c r="AE41" s="157"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="90"/>
+      <c r="AD41" s="90"/>
+      <c r="AE41" s="90"/>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
@@ -5138,8 +5200,8 @@
       <c r="AP41" s="6"/>
     </row>
     <row r="42" spans="2:42" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
       <c r="G42" s="50" t="s">
         <v>93</v>
       </c>
@@ -5159,29 +5221,29 @@
         <v>92</v>
       </c>
       <c r="Z42" s="10"/>
-      <c r="AB42" s="151" t="s">
+      <c r="AB42" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="AC42" s="151"/>
-      <c r="AD42" s="151"/>
-      <c r="AE42" s="151"/>
-      <c r="AI42" s="158" t="s">
+      <c r="AC42" s="91"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AI42" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="AJ42" s="158"/>
-      <c r="AK42" s="158"/>
-      <c r="AL42" s="158"/>
-      <c r="AM42" s="158"/>
-      <c r="AN42" s="158"/>
-      <c r="AO42" s="158"/>
-      <c r="AP42" s="158"/>
+      <c r="AJ42" s="89"/>
+      <c r="AK42" s="89"/>
+      <c r="AL42" s="89"/>
+      <c r="AM42" s="89"/>
+      <c r="AN42" s="89"/>
+      <c r="AO42" s="89"/>
+      <c r="AP42" s="89"/>
     </row>
     <row r="43" spans="2:42" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -5198,10 +5260,10 @@
       </c>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
-      <c r="AB43" s="157"/>
-      <c r="AC43" s="157"/>
-      <c r="AD43" s="157"/>
-      <c r="AE43" s="157"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="90"/>
+      <c r="AE43" s="90"/>
       <c r="AI43" s="51"/>
       <c r="AJ43" s="51"/>
       <c r="AK43" s="51"/>
@@ -5239,22 +5301,22 @@
         <v>92</v>
       </c>
       <c r="Z44" s="10"/>
-      <c r="AB44" s="151" t="s">
+      <c r="AB44" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="AC44" s="151"/>
-      <c r="AD44" s="151"/>
-      <c r="AE44" s="151"/>
-      <c r="AI44" s="158" t="s">
+      <c r="AC44" s="91"/>
+      <c r="AD44" s="91"/>
+      <c r="AE44" s="91"/>
+      <c r="AI44" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="AJ44" s="158"/>
-      <c r="AK44" s="158"/>
-      <c r="AL44" s="158"/>
-      <c r="AM44" s="158"/>
-      <c r="AN44" s="158"/>
-      <c r="AO44" s="158"/>
-      <c r="AP44" s="158"/>
+      <c r="AJ44" s="89"/>
+      <c r="AK44" s="89"/>
+      <c r="AL44" s="89"/>
+      <c r="AM44" s="89"/>
+      <c r="AN44" s="89"/>
+      <c r="AO44" s="89"/>
+      <c r="AP44" s="89"/>
     </row>
     <row r="45" spans="2:42" s="16" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R45" s="54"/>
@@ -5289,59 +5351,26 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AI44:AP44"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:P38"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="AI42:AP42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AI28:AP29"/>
-    <mergeCell ref="F29:I31"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AI30:AP31"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AC25:AG25"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AM25:AO25"/>
-    <mergeCell ref="AM23:AO23"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AG24"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AM24:AO24"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AG23"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AC20:AG21"/>
-    <mergeCell ref="AH20:AL20"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AG22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="V1:AN1"/>
+    <mergeCell ref="B3:AF4"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="B6:AJ6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:AJ8"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="D10:AJ10"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="D12:AJ12"/>
+    <mergeCell ref="AL13:AM14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="D14:AJ14"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="AL17:AM17"/>
     <mergeCell ref="AM22:AO22"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:H20"/>
@@ -5358,26 +5387,59 @@
     <mergeCell ref="AJ21:AL21"/>
     <mergeCell ref="X20:Y21"/>
     <mergeCell ref="Z20:AB21"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:U17"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="D10:AJ10"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="D12:AJ12"/>
-    <mergeCell ref="AL13:AM14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="D14:AJ14"/>
-    <mergeCell ref="V1:AN1"/>
-    <mergeCell ref="B3:AF4"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="B6:AJ6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:AJ8"/>
+    <mergeCell ref="AC20:AG21"/>
+    <mergeCell ref="AH20:AL20"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AM25:AO25"/>
+    <mergeCell ref="AM23:AO23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AG24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AM24:AO24"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AG23"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AG25"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="AI28:AP29"/>
+    <mergeCell ref="F29:I31"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AI30:AP31"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AI44:AP44"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AI42:AP42"/>
+    <mergeCell ref="AB43:AE43"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape"/>

--- a/resources/template/_trade12.xlsx
+++ b/resources/template/_trade12.xlsx
@@ -1909,7 +1909,7 @@
   </sheetPr>
   <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="AJ25" sqref="AJ25:AL25"/>
     </sheetView>
   </sheetViews>
